--- a/mySystem/mySystem/xls/PTV/18 QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/18 QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2017年工作\2017-生产指令台账\ERP\305，PTV生产记录\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="105" windowWidth="18135" windowHeight="8160"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="20170830" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -215,20 +210,16 @@
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>设备：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -579,47 +570,44 @@
     <xf numFmtId="177" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -682,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -714,10 +702,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,7 +736,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -925,26 +911,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J11:J12"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.25" style="19" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="13" customWidth="1"/>
     <col min="3" max="3" width="9" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.125" style="13" customWidth="1"/>
     <col min="5" max="5" width="6.625" style="13" customWidth="1"/>
-    <col min="6" max="15" width="5.125" style="13" customWidth="1"/>
-    <col min="16" max="18" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="4"/>
+    <col min="6" max="11" width="5.125" style="13" customWidth="1"/>
+    <col min="12" max="14" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="17.25" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
@@ -960,50 +946,42 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:17" ht="35.25" customHeight="1">
+      <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="24"/>
       <c r="D3" s="22"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="20"/>
@@ -1011,55 +989,45 @@
       <c r="I3" s="24"/>
       <c r="J3" s="20"/>
       <c r="K3" s="24"/>
-      <c r="L3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="O3" s="20"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="25"/>
-    </row>
-    <row r="4" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="25"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1">
+      <c r="A4" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="42" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="P4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="Q4" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" s="5" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>9</v>
       </c>
@@ -1093,32 +1061,20 @@
       <c r="K5" s="14">
         <v>6</v>
       </c>
-      <c r="L5" s="14">
-        <v>7</v>
-      </c>
-      <c r="M5" s="14">
-        <v>8</v>
-      </c>
-      <c r="N5" s="14">
-        <v>9</v>
-      </c>
-      <c r="O5" s="14">
-        <v>10</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="35"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-    </row>
-    <row r="6" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O5" s="44"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+    </row>
+    <row r="6" spans="1:17" ht="21" customHeight="1">
       <c r="A6" s="18">
         <v>1</v>
       </c>
@@ -1132,29 +1088,25 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="9">
-        <f t="shared" ref="P6:P14" si="0">MIN(F6:O6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10">
-        <f t="shared" ref="Q6:Q14" si="1">MAX(F6:P6)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <f>AVERAGE(F6:Q6)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="31" t="s">
+      <c r="L6" s="9">
+        <f>MIN(F6:K6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" ref="M6:M14" si="0">MAX(F6:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <f>AVERAGE(F6:M6)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P6" s="12"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="21" customHeight="1">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -1168,27 +1120,23 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="9">
+      <c r="L7" s="9">
+        <f>MIN(F7:K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="11">
-        <f>AVERAGE(F7:Q7)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N7" s="11">
+        <f>AVERAGE(F7:M7)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" ht="21" customHeight="1">
       <c r="A8" s="18">
         <v>3</v>
       </c>
@@ -1202,27 +1150,23 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="9">
+      <c r="L8" s="9">
+        <f>MIN(F8:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11">
-        <f>AVERAGE(F8:Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="11">
+        <f>AVERAGE(F8:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="21" customHeight="1">
       <c r="A9" s="18">
         <v>4</v>
       </c>
@@ -1236,27 +1180,23 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="9">
+      <c r="L9" s="9">
+        <f>MIN(F9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <f t="shared" ref="R9:R14" si="2">AVERAGE(F9:Q9)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N9" s="11">
+        <f t="shared" ref="N9:N14" si="1">AVERAGE(F9:M9)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="21" customHeight="1">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -1270,27 +1210,23 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="9">
+      <c r="L10" s="9">
+        <f>MIN(F10:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="N10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" ht="21" customHeight="1">
       <c r="A11" s="18">
         <v>6</v>
       </c>
@@ -1304,27 +1240,23 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="9">
+      <c r="L11" s="9">
+        <f>MIN(F11:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="N11" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" ht="21" customHeight="1">
       <c r="A12" s="18">
         <v>7</v>
       </c>
@@ -1338,27 +1270,23 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="9">
+      <c r="L12" s="9">
+        <f>MIN(F12:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" ht="21" customHeight="1">
       <c r="A13" s="18">
         <v>8</v>
       </c>
@@ -1372,27 +1300,23 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="9">
+      <c r="L13" s="9">
+        <f>MIN(F13:K13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="N13" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="21" customHeight="1">
       <c r="A14" s="18">
         <v>9</v>
       </c>
@@ -1406,27 +1330,23 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="9">
+      <c r="L14" s="9">
+        <f>MIN(F14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="N14" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" customHeight="1">
       <c r="A15" s="18">
         <v>10</v>
       </c>
@@ -1440,27 +1360,23 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="9">
-        <f t="shared" ref="P15:P22" si="3">MIN(F15:O15)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
-        <f t="shared" ref="Q15:Q22" si="4">MAX(F15:P15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="11">
-        <f t="shared" ref="R15:R22" si="5">AVERAGE(F15:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="9">
+        <f>MIN(F15:K15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" ref="M15:M18" si="2">MAX(F15:L15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <f t="shared" ref="N15:N18" si="3">AVERAGE(F15:M15)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="21" customHeight="1">
       <c r="A16" s="18">
         <v>11</v>
       </c>
@@ -1474,27 +1390,23 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="9">
+      <c r="L16" s="9">
+        <f>MIN(F16:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" ht="21" customHeight="1">
       <c r="A17" s="18">
         <v>12</v>
       </c>
@@ -1508,27 +1420,23 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="9">
+      <c r="L17" s="9">
+        <f>MIN(F17:K17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q17" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" ht="21" customHeight="1">
       <c r="A18" s="18">
         <v>13</v>
       </c>
@@ -1542,27 +1450,23 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="9">
+      <c r="L18" s="9">
+        <f>MIN(F18:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" ht="21" customHeight="1">
       <c r="A19" s="18">
         <v>14</v>
       </c>
@@ -1576,27 +1480,23 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="9">
-        <f t="shared" ref="P19:P21" si="6">MIN(F19:O19)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <f t="shared" ref="Q19:Q21" si="7">MAX(F19:P19)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <f t="shared" ref="R19:R21" si="8">AVERAGE(F19:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L19" s="9">
+        <f>MIN(F19:K19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" ref="M19:M20" si="4">MAX(F19:L19)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" ref="N19:N20" si="5">AVERAGE(F19:M19)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" ht="21" customHeight="1">
       <c r="A20" s="18">
         <v>15</v>
       </c>
@@ -1610,137 +1510,61 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="6"/>
-    </row>
-    <row r="21" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="18">
-        <v>16</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="6"/>
-    </row>
-    <row r="22" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
+      <c r="L20" s="9">
+        <f>MIN(F20:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="36" t="s">
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" customHeight="1">
+      <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="9">
-        <f t="shared" ref="P23" si="9">MIN(F23:O23)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <f t="shared" ref="Q23" si="10">MAX(F23:P23)</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" ref="R23" si="11">AVERAGE(F23:Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="6"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="9">
+        <f>MIN(F21:K21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" ref="M21" si="6">MAX(F21:L21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" ref="N21" si="7">AVERAGE(F21:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="A23:O23"/>
-    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="A21:K21"/>
+    <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:R4"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1751,14 +1575,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
